--- a/git bash命令.xlsx
+++ b/git bash命令.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSgit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\bash--\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DFE89C-2099-4799-BBDD-C087DC631E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCE8075-D305-4399-904C-9987CF1BAB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>需要输入用户名和邮箱以作为标识，因此，在命令行输入下列的命令：</t>
   </si>
@@ -331,6 +331,18 @@
   </si>
   <si>
     <t>将命令行里的http改为git重新执行。</t>
+  </si>
+  <si>
+    <t>账号：zhanghy618</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1330,16 +1342,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>622615</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>317815</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>95439</xdr:rowOff>
+      <xdr:rowOff>9714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1368,8 +1380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7708900" y="863600"/>
-          <a:ext cx="6121715" cy="3683189"/>
+          <a:off x="9740900" y="793750"/>
+          <a:ext cx="6350315" cy="3768914"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1647,7 +1659,7 @@
   <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:K18"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1713,19 +1725,40 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J15" s="5"/>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L18" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="L21" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
